--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220501_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220501_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="262">
   <si>
     <t>사이트</t>
   </si>
@@ -709,10 +709,10 @@
     <t>MORE VISION</t>
   </si>
   <si>
+    <t>ABYSS</t>
+  </si>
+  <si>
     <t>빅플래닛메이드</t>
-  </si>
-  <si>
-    <t>ABYSS</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -1338,6 +1338,12 @@
       <c r="F7" t="s">
         <v>176</v>
       </c>
+      <c r="G7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -1385,7 +1391,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H9" t="s">
         <v>254</v>
@@ -1411,7 +1417,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H10" t="s">
         <v>254</v>
@@ -2009,7 +2015,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H33" t="s">
         <v>254</v>
@@ -2320,6 +2326,12 @@
       <c r="F45" t="s">
         <v>194</v>
       </c>
+      <c r="G45" t="s">
+        <v>231</v>
+      </c>
+      <c r="H45" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
@@ -3407,7 +3419,7 @@
         <v>214</v>
       </c>
       <c r="G87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H87" t="s">
         <v>254</v>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220501_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220501_110605.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-05-01</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220501_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220501_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="262">
   <si>
     <t>사이트</t>
   </si>
@@ -1157,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3433,22 +3433,22 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G88" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H88" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3459,19 +3459,19 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G89" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H89" t="s">
         <v>254</v>
@@ -3485,19 +3485,19 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G90" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="H90" t="s">
         <v>254</v>
@@ -3511,19 +3511,19 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F91" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="H91" t="s">
         <v>254</v>
@@ -3537,22 +3537,22 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="G92" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="H92" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3563,22 +3563,22 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G93" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="H93" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3589,19 +3589,19 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="F94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G94" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H94" t="s">
         <v>254</v>
@@ -3615,19 +3615,19 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="F95" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H95" t="s">
         <v>254</v>
@@ -3641,19 +3641,19 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="G96" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H96" t="s">
         <v>254</v>
@@ -3667,22 +3667,22 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G97" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="H97" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3693,22 +3693,22 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G98" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="H98" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3719,22 +3719,22 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="F99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G99" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="H99" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3745,22 +3745,22 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="F100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G100" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="H100" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3771,47 +3771,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="F101" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H101" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>133</v>
-      </c>
-      <c r="F102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G102" t="s">
-        <v>234</v>
-      </c>
-      <c r="H102" t="s">
         <v>254</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220501_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220501_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="261">
   <si>
     <t>사이트</t>
   </si>
@@ -751,7 +751,7 @@
     <t>N.A.P</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>빅히트</t>
@@ -776,9 +776,6 @@
   </si>
   <si>
     <t>NEXTAR</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>레시피뮤직</t>
@@ -1264,7 +1261,7 @@
         <v>228</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1316,7 +1313,7 @@
         <v>230</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1342,7 +1339,7 @@
         <v>231</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1394,7 +1391,7 @@
         <v>232</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1420,7 +1417,7 @@
         <v>231</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1472,7 +1469,7 @@
         <v>233</v>
       </c>
       <c r="H12" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1498,7 +1495,7 @@
         <v>234</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1524,7 +1521,7 @@
         <v>235</v>
       </c>
       <c r="H14" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1550,7 +1547,7 @@
         <v>236</v>
       </c>
       <c r="H15" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1576,7 +1573,7 @@
         <v>237</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1602,7 +1599,7 @@
         <v>238</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1628,7 +1625,7 @@
         <v>239</v>
       </c>
       <c r="H18" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1654,7 +1651,7 @@
         <v>240</v>
       </c>
       <c r="H19" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1680,7 +1677,7 @@
         <v>238</v>
       </c>
       <c r="H20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1706,7 +1703,7 @@
         <v>241</v>
       </c>
       <c r="H21" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1732,7 +1729,7 @@
         <v>242</v>
       </c>
       <c r="H22" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1758,7 +1755,7 @@
         <v>240</v>
       </c>
       <c r="H23" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1862,7 +1859,7 @@
         <v>228</v>
       </c>
       <c r="H27" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1888,7 +1885,7 @@
         <v>244</v>
       </c>
       <c r="H28" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1914,7 +1911,7 @@
         <v>238</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1940,7 +1937,7 @@
         <v>234</v>
       </c>
       <c r="H30" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1992,7 +1989,7 @@
         <v>245</v>
       </c>
       <c r="H32" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2018,7 +2015,7 @@
         <v>232</v>
       </c>
       <c r="H33" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2096,7 +2093,7 @@
         <v>247</v>
       </c>
       <c r="H36" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2122,7 +2119,7 @@
         <v>234</v>
       </c>
       <c r="H37" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2148,7 +2145,7 @@
         <v>240</v>
       </c>
       <c r="H38" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2174,7 +2171,7 @@
         <v>239</v>
       </c>
       <c r="H39" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2226,7 +2223,7 @@
         <v>248</v>
       </c>
       <c r="H41" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2252,7 +2249,7 @@
         <v>245</v>
       </c>
       <c r="H42" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2278,7 +2275,7 @@
         <v>249</v>
       </c>
       <c r="H43" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2330,7 +2327,7 @@
         <v>231</v>
       </c>
       <c r="H45" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2356,7 +2353,7 @@
         <v>250</v>
       </c>
       <c r="H46" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2408,7 +2405,7 @@
         <v>238</v>
       </c>
       <c r="H48" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2460,7 +2457,7 @@
         <v>234</v>
       </c>
       <c r="H50" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2512,7 +2509,7 @@
         <v>238</v>
       </c>
       <c r="H52" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2538,7 +2535,7 @@
         <v>245</v>
       </c>
       <c r="H53" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2564,7 +2561,7 @@
         <v>247</v>
       </c>
       <c r="H54" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2590,7 +2587,7 @@
         <v>234</v>
       </c>
       <c r="H55" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2616,7 +2613,7 @@
         <v>238</v>
       </c>
       <c r="H56" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2642,7 +2639,7 @@
         <v>251</v>
       </c>
       <c r="H57" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2668,7 +2665,7 @@
         <v>245</v>
       </c>
       <c r="H58" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2772,7 +2769,7 @@
         <v>236</v>
       </c>
       <c r="H62" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2798,7 +2795,7 @@
         <v>228</v>
       </c>
       <c r="H63" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2824,7 +2821,7 @@
         <v>245</v>
       </c>
       <c r="H64" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2850,7 +2847,7 @@
         <v>234</v>
       </c>
       <c r="H65" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2876,7 +2873,7 @@
         <v>241</v>
       </c>
       <c r="H66" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2902,7 +2899,7 @@
         <v>253</v>
       </c>
       <c r="H67" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2928,7 +2925,7 @@
         <v>241</v>
       </c>
       <c r="H68" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2980,7 +2977,7 @@
         <v>245</v>
       </c>
       <c r="H70" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3006,7 +3003,7 @@
         <v>234</v>
       </c>
       <c r="H71" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3029,10 +3026,10 @@
         <v>157</v>
       </c>
       <c r="G72" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H72" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3058,7 +3055,7 @@
         <v>238</v>
       </c>
       <c r="H73" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3107,10 +3104,10 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H75" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3136,7 +3133,7 @@
         <v>234</v>
       </c>
       <c r="H76" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3159,10 +3156,10 @@
         <v>209</v>
       </c>
       <c r="G77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H77" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3188,7 +3185,7 @@
         <v>245</v>
       </c>
       <c r="H78" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3214,7 +3211,7 @@
         <v>238</v>
       </c>
       <c r="H79" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3240,7 +3237,7 @@
         <v>238</v>
       </c>
       <c r="H80" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3292,7 +3289,7 @@
         <v>239</v>
       </c>
       <c r="H82" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3315,10 +3312,10 @@
         <v>211</v>
       </c>
       <c r="G83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H83" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3344,7 +3341,7 @@
         <v>234</v>
       </c>
       <c r="H84" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3370,7 +3367,7 @@
         <v>248</v>
       </c>
       <c r="H85" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3422,7 +3419,7 @@
         <v>232</v>
       </c>
       <c r="H87" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3448,7 +3445,7 @@
         <v>251</v>
       </c>
       <c r="H88" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3471,10 +3468,10 @@
         <v>216</v>
       </c>
       <c r="G89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H89" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3500,7 +3497,7 @@
         <v>240</v>
       </c>
       <c r="H90" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3523,10 +3520,10 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H91" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3575,10 +3572,10 @@
         <v>219</v>
       </c>
       <c r="G93" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H93" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3604,7 +3601,7 @@
         <v>242</v>
       </c>
       <c r="H94" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3627,10 +3624,10 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H95" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3653,10 +3650,10 @@
         <v>221</v>
       </c>
       <c r="G96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H96" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3705,10 +3702,10 @@
         <v>223</v>
       </c>
       <c r="G98" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H98" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3786,7 +3783,7 @@
         <v>234</v>
       </c>
       <c r="H101" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
